--- a/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>89996</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73680</v>
+        <v>72732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109291</v>
+        <v>106661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1341348121191296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1098167753077618</v>
+        <v>0.1084038315420476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1628927072414877</v>
+        <v>0.1589727252948323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -763,19 +763,19 @@
         <v>61758</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48662</v>
+        <v>48325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76961</v>
+        <v>75095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09278850090351337</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07311148185125758</v>
+        <v>0.07260636097782758</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1156301310688119</v>
+        <v>0.112827114043554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -784,19 +784,19 @@
         <v>151754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128847</v>
+        <v>130435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174918</v>
+        <v>177532</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1135445101367355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09640516377468872</v>
+        <v>0.09759300875716656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1308761700532108</v>
+        <v>0.1328317105405705</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>580941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561646</v>
+        <v>564276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597257</v>
+        <v>598205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8658651878808704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8371072927585123</v>
+        <v>0.8410272747051676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8901832246922382</v>
+        <v>0.8915961684579518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>595</v>
@@ -834,19 +834,19 @@
         <v>603822</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>588619</v>
+        <v>590485</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>616918</v>
+        <v>617255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9072114990964867</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8843698689311881</v>
+        <v>0.8871728859564461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9268885181487425</v>
+        <v>0.9273936390221724</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1154</v>
@@ -855,19 +855,19 @@
         <v>1184763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1161599</v>
+        <v>1158985</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1207670</v>
+        <v>1206082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8864554898632645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8691238299467893</v>
+        <v>0.8671682894594295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9035948362253112</v>
+        <v>0.9024069912428334</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>128161</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108353</v>
+        <v>108069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151841</v>
+        <v>150234</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1258995775727987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1064411150653134</v>
+        <v>0.1061622719885949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1491617005961495</v>
+        <v>0.1475832658480845</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -980,19 +980,19 @@
         <v>88114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70935</v>
+        <v>71285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107245</v>
+        <v>107389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08459720538605936</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06810359644388084</v>
+        <v>0.06843980445798099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1029644084732919</v>
+        <v>0.1031024374976389</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -1001,19 +1001,19 @@
         <v>216275</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190222</v>
+        <v>189655</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>246421</v>
+        <v>245943</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1050116836251879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09236151334471554</v>
+        <v>0.09208621523695887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1196489707655507</v>
+        <v>0.1194166362580927</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>889803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>866123</v>
+        <v>867730</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>909611</v>
+        <v>909895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8741004224272013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8508382994038504</v>
+        <v>0.8524167341519154</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8935588849346866</v>
+        <v>0.893837728011405</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>891</v>
@@ -1051,19 +1051,19 @@
         <v>953457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>934326</v>
+        <v>934182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>970636</v>
+        <v>970286</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9154027946139407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8970355915267079</v>
+        <v>0.8968975625023611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9318964035561191</v>
+        <v>0.931560195542019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1719</v>
@@ -1072,19 +1072,19 @@
         <v>1843260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1813114</v>
+        <v>1813592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1869313</v>
+        <v>1869880</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8949883163748121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8803510292344491</v>
+        <v>0.8805833637419073</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9076384866552836</v>
+        <v>0.9079137847630409</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>99227</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80909</v>
+        <v>79930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121820</v>
+        <v>117630</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1311351355555485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1069259693333866</v>
+        <v>0.1056330841883547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1609930573910088</v>
+        <v>0.1554556657866156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -1197,19 +1197,19 @@
         <v>55592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41601</v>
+        <v>42478</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70529</v>
+        <v>71978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0710519099625166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0531693565497653</v>
+        <v>0.05429070762227551</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09014225932654771</v>
+        <v>0.09199378880874406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -1218,19 +1218,19 @@
         <v>154820</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132771</v>
+        <v>132172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178903</v>
+        <v>180344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1005910904882319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08626552740075384</v>
+        <v>0.08587616485155151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1162388870907717</v>
+        <v>0.1171753012035266</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>657452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634859</v>
+        <v>639049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>675770</v>
+        <v>676749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8688648644444514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.839006942608991</v>
+        <v>0.844544334213384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8930740306666134</v>
+        <v>0.8943669158116453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>681</v>
@@ -1268,19 +1268,19 @@
         <v>726828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>711891</v>
+        <v>710442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>740819</v>
+        <v>739942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9289480900374834</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9098577406734524</v>
+        <v>0.9080062111912559</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.946830643450235</v>
+        <v>0.9457092923777245</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1282</v>
@@ -1289,19 +1289,19 @@
         <v>1384279</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1360196</v>
+        <v>1358755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1406328</v>
+        <v>1406927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.899408909511768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8837611129092294</v>
+        <v>0.8828246987964734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9137344725992463</v>
+        <v>0.9141238351484484</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>101552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84336</v>
+        <v>83621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119654</v>
+        <v>120299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1094087943890098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09086158435037602</v>
+        <v>0.09009038606580573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1289116936853924</v>
+        <v>0.1296070021538034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1414,19 +1414,19 @@
         <v>70839</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55369</v>
+        <v>56337</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88317</v>
+        <v>87660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06867032767142363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05367443006777768</v>
+        <v>0.05461277555482601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08561337395997873</v>
+        <v>0.08497736339890577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -1435,19 +1435,19 @@
         <v>172390</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147830</v>
+        <v>147237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199048</v>
+        <v>198267</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08796495997541405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07543297909557542</v>
+        <v>0.07513029345408315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1015675723380689</v>
+        <v>0.1011688868043646</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>826633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>808531</v>
+        <v>807886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>843849</v>
+        <v>844564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8905912056109903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8710883063146078</v>
+        <v>0.8703929978461964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9091384156496243</v>
+        <v>0.9099096139341943</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>879</v>
@@ -1485,19 +1485,19 @@
         <v>960735</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>943257</v>
+        <v>943914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>976205</v>
+        <v>975237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9313296723285763</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9143866260400213</v>
+        <v>0.9150226366010942</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9463255699322223</v>
+        <v>0.945387224445174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1699</v>
@@ -1506,19 +1506,19 @@
         <v>1787369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1760711</v>
+        <v>1761492</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1811929</v>
+        <v>1812522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9120350400245859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.898432427661931</v>
+        <v>0.8988311131956354</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9245670209044246</v>
+        <v>0.9248697065459168</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>418936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>384347</v>
+        <v>380569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>460525</v>
+        <v>458505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1241746394896912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1139221344040904</v>
+        <v>0.1128025675194444</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1365019393090566</v>
+        <v>0.1359031338868905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>273</v>
@@ -1631,19 +1631,19 @@
         <v>276303</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>248405</v>
+        <v>248413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>308604</v>
+        <v>309412</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07846968218273359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07054665941004624</v>
+        <v>0.07054893871464281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08764291647142873</v>
+        <v>0.08787261539516761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>678</v>
@@ -1652,19 +1652,19 @@
         <v>695239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>648106</v>
+        <v>643622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>748598</v>
+        <v>745645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1008336839739633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09399777843838782</v>
+        <v>0.09334744705178009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1085725741294691</v>
+        <v>0.108144241672606</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2954829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2913240</v>
+        <v>2915260</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2989418</v>
+        <v>2993196</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8758253605103088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8634980606909434</v>
+        <v>0.8640968661131097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8860778655959096</v>
+        <v>0.8871974324805556</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3046</v>
@@ -1702,19 +1702,19 @@
         <v>3244843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3212542</v>
+        <v>3211734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3272741</v>
+        <v>3272733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9215303178172664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9123570835285711</v>
+        <v>0.9121273846048324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9294533405899538</v>
+        <v>0.9294510612853573</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5854</v>
@@ -1723,19 +1723,19 @@
         <v>6199672</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6146313</v>
+        <v>6149266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6246805</v>
+        <v>6251289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8991663160260367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8914274258705305</v>
+        <v>0.8918557583273939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9060022215616121</v>
+        <v>0.9066525529482199</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>34692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22456</v>
+        <v>22730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50883</v>
+        <v>49751</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05039251176583034</v>
+        <v>0.05039251176583035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03261894621746194</v>
+        <v>0.033017463124681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07391245185492497</v>
+        <v>0.07226807682407217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2088,19 +2088,19 @@
         <v>24607</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16509</v>
+        <v>17359</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34382</v>
+        <v>35117</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.033691291376769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0226043189876528</v>
+        <v>0.02376812286872909</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04707516565546507</v>
+        <v>0.04808113358738821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -2109,19 +2109,19 @@
         <v>59299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45620</v>
+        <v>43671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78161</v>
+        <v>78728</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04179505865337475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03215438263793478</v>
+        <v>0.03078040981489406</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05508943400775686</v>
+        <v>0.05548926833175458</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>653735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>637544</v>
+        <v>638676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665971</v>
+        <v>665697</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9496074882341695</v>
+        <v>0.9496074882341697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9260875481450752</v>
+        <v>0.9277319231759282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.967381053782538</v>
+        <v>0.966982536875319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1203</v>
@@ -2159,19 +2159,19 @@
         <v>705760</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>695985</v>
+        <v>695250</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>713858</v>
+        <v>713008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.966308708623231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9529248343445351</v>
+        <v>0.9519188664126119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9773956810123474</v>
+        <v>0.9762318771312708</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1903</v>
@@ -2180,19 +2180,19 @@
         <v>1359495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1340633</v>
+        <v>1340066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1373174</v>
+        <v>1375123</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9582049413466251</v>
+        <v>0.9582049413466253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9449105659922431</v>
+        <v>0.9445107316682452</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9678456173620654</v>
+        <v>0.9692195901851061</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>75201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56070</v>
+        <v>56067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99570</v>
+        <v>100013</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07175357716921497</v>
+        <v>0.071753577169215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05349892017857772</v>
+        <v>0.05349596490134848</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09500490033841075</v>
+        <v>0.09542751183672214</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -2305,19 +2305,19 @@
         <v>31920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22264</v>
+        <v>22996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45516</v>
+        <v>43521</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02985800393633401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02082535265652556</v>
+        <v>0.02151013992596856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04257581534219752</v>
+        <v>0.04070884388537879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -2326,19 +2326,19 @@
         <v>107122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83188</v>
+        <v>84784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130801</v>
+        <v>133111</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05059784749382461</v>
+        <v>0.0505978474938246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03929306312796537</v>
+        <v>0.04004700800449463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06178257292843177</v>
+        <v>0.06287339489844271</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>972851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>948482</v>
+        <v>948039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>991982</v>
+        <v>991985</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.928246422830785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9049950996615892</v>
+        <v>0.9045724881632781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9465010798214223</v>
+        <v>0.9465040350986516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1476</v>
@@ -2376,19 +2376,19 @@
         <v>1037148</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1023552</v>
+        <v>1025547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1046804</v>
+        <v>1046072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9701419960636659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9574241846578029</v>
+        <v>0.9592911561146213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9791746473434747</v>
+        <v>0.9784898600740313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2385</v>
@@ -2397,19 +2397,19 @@
         <v>2009999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1986320</v>
+        <v>1984010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2033933</v>
+        <v>2032337</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9494021525061755</v>
+        <v>0.9494021525061752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9382174270715685</v>
+        <v>0.9371266051015573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9607069368720347</v>
+        <v>0.9599529919955054</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>59626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42839</v>
+        <v>42700</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81005</v>
+        <v>81350</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07424786143802244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05334355374291413</v>
+        <v>0.05317130591602173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1008687063000657</v>
+        <v>0.1012984836376525</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2522,19 +2522,19 @@
         <v>30603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20634</v>
+        <v>20436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46157</v>
+        <v>45716</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03770864632410463</v>
+        <v>0.03770864632410464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02542474289152922</v>
+        <v>0.02518060018686523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05687384423497871</v>
+        <v>0.05632964534422649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -2543,19 +2543,19 @@
         <v>90230</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70122</v>
+        <v>69792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114937</v>
+        <v>115070</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05588204713810616</v>
+        <v>0.05588204713810618</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04342857631124984</v>
+        <v>0.04322405046061086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0711838900628689</v>
+        <v>0.07126612032760804</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>743447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>722068</v>
+        <v>721723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>760234</v>
+        <v>760373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9257521385619776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8991312936999343</v>
+        <v>0.8987015163623475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9466564462570859</v>
+        <v>0.9468286940839781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1016</v>
@@ -2593,19 +2593,19 @@
         <v>780973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>765419</v>
+        <v>765860</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>790942</v>
+        <v>791140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9622913536758954</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9431261557650211</v>
+        <v>0.9436703546557735</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9745752571084706</v>
+        <v>0.9748193998131347</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1650</v>
@@ -2614,19 +2614,19 @@
         <v>1524419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1499712</v>
+        <v>1499579</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1544527</v>
+        <v>1544857</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9441179528618936</v>
+        <v>0.9441179528618938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9288161099371312</v>
+        <v>0.9287338796723918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9565714236887501</v>
+        <v>0.9567759495393892</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>94258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75483</v>
+        <v>72523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118157</v>
+        <v>117838</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09529375793927143</v>
+        <v>0.09529375793927142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07631284456200911</v>
+        <v>0.07332049911406223</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1194558659492862</v>
+        <v>0.1191338389150787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -2739,19 +2739,19 @@
         <v>57245</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44188</v>
+        <v>44123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73916</v>
+        <v>75455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05136197056012584</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03964623145822714</v>
+        <v>0.03958800399479211</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06631946010195164</v>
+        <v>0.06769984072431728</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -2760,19 +2760,19 @@
         <v>151503</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126632</v>
+        <v>126903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179307</v>
+        <v>181882</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07201825177239242</v>
+        <v>0.07201825177239243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06019575983187023</v>
+        <v>0.06032444403102188</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08523512784503924</v>
+        <v>0.08645898326006962</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>894869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>870970</v>
+        <v>871289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>913644</v>
+        <v>916604</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9047062420607285</v>
+        <v>0.9047062420607287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8805441340507137</v>
+        <v>0.8808661610849218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9236871554379907</v>
+        <v>0.9266795008859381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1497</v>
@@ -2810,19 +2810,19 @@
         <v>1057304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1040633</v>
+        <v>1039094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1070361</v>
+        <v>1070426</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9486380294398743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9336805398980486</v>
+        <v>0.9323001592756828</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9603537685417728</v>
+        <v>0.9604119960052079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2428</v>
@@ -2831,19 +2831,19 @@
         <v>1952174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1924370</v>
+        <v>1921795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1977045</v>
+        <v>1976774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9279817482276076</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9147648721549606</v>
+        <v>0.91354101673993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9398042401681296</v>
+        <v>0.939675555968978</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>263777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>230128</v>
+        <v>224612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>304365</v>
+        <v>305494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0747523738706181</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06521636856187842</v>
+        <v>0.06365324646364223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08625461911091466</v>
+        <v>0.08657466552482941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -2956,19 +2956,19 @@
         <v>144376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122566</v>
+        <v>122618</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170727</v>
+        <v>169646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03875286191098209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03289880444564754</v>
+        <v>0.03291259571586524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0458258849606225</v>
+        <v>0.0455356586709189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>355</v>
@@ -2977,19 +2977,19 @@
         <v>408153</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>364238</v>
+        <v>362349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>459131</v>
+        <v>452428</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05626410501267202</v>
+        <v>0.05626410501267201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05021039361473768</v>
+        <v>0.0499498918271697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06329142376869849</v>
+        <v>0.06236735809112513</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3264903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3224315</v>
+        <v>3223186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3298552</v>
+        <v>3304068</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9252476261293819</v>
+        <v>0.9252476261293817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9137453808890854</v>
+        <v>0.9134253344751708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9347836314381215</v>
+        <v>0.936346753536358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5192</v>
@@ -3027,19 +3027,19 @@
         <v>3581184</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3554833</v>
+        <v>3555914</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3602994</v>
+        <v>3602942</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9612471380890178</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9541741150393775</v>
+        <v>0.954464341329081</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9671011955543525</v>
+        <v>0.9670874042841348</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8366</v>
@@ -3048,19 +3048,19 @@
         <v>6846087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6795109</v>
+        <v>6801812</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6890002</v>
+        <v>6891891</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.943735894987328</v>
+        <v>0.9437358949873278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9367085762313014</v>
+        <v>0.9376326419088747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9497896063852623</v>
+        <v>0.9500501081728302</v>
       </c>
     </row>
     <row r="18">
